--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjgra\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjgra\Documents\GitHub\ballbeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51669010-60BC-4677-B868-BBDB87518AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C90CC21-8497-45F2-8C1B-25DBBF2ED7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{C168B5FA-1919-4534-8D4F-58E02B33F2C5}"/>
+    <workbookView xWindow="10665" yWindow="2055" windowWidth="12150" windowHeight="15435" xr2:uid="{C168B5FA-1919-4534-8D4F-58E02B33F2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>SparkFun Redboard Qwiic</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>TODO</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/3317</t>
+  </si>
+  <si>
+    <t>Adafruit VL53L0X Time of Flight Distance Sensor</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/4480</t>
+  </si>
+  <si>
+    <t>Adafruit LSM6DS33 6-DoF Accel + Gyro IMU - STEMMA QT / Qwiic</t>
   </si>
 </sst>
 </file>
@@ -563,16 +575,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27E8EC4-852D-49CA-A771-B6935FD1AC9E}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="92.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
@@ -636,7 +648,7 @@
         <v>15.79</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E13" si="0">D4*A4</f>
+        <f t="shared" ref="E4:E15" si="0">D4*A4</f>
         <v>15.79</v>
       </c>
     </row>
@@ -645,17 +657,17 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D5" s="2">
-        <v>3.58</v>
+        <v>14.95</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>3.58</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -663,17 +675,17 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
-        <v>8.99</v>
+        <v>5.95</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>8.99</v>
+        <v>5.95</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -681,17 +693,17 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2">
-        <v>1.95</v>
+        <v>8.99</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>1.95</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -699,17 +711,17 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
-        <v>0.95</v>
+        <v>1.95</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -717,10 +729,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2">
         <v>0.95</v>
@@ -735,17 +747,17 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2">
-        <v>2.95</v>
+        <v>0.95</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
-        <v>2.95</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -753,17 +765,17 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2">
-        <v>9.99</v>
+        <v>2.95</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>9.99</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -771,17 +783,17 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2">
-        <v>30</v>
+        <v>9.99</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -789,51 +801,88 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3.58</v>
+      </c>
+      <c r="E13" s="2">
+        <f>D13*A13</f>
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D15" s="2">
         <v>5</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-    </row>
-    <row r="16" spans="1:5" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="18" spans="1:5" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5">
-        <f>SUM(E3:E15)</f>
-        <v>96.970000000000013</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5">
+        <f>SUM(E3:E17)</f>
+        <v>117.87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{3B137E1E-C494-4C17-A72F-66A6D15B151B}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{3B137E1E-C494-4C17-A72F-66A6D15B151B}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{2C88A49A-D152-48B2-8DB2-F1633349CFCE}"/>
-    <hyperlink ref="C11" r:id="rId3" xr:uid="{3C8985B7-B083-48B0-95A5-8FA58093F70E}"/>
-    <hyperlink ref="C8" r:id="rId4" xr:uid="{7126DFDE-433E-4CEC-A816-2C0F8EC6FA50}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{E6E79CAD-1C2E-4C8C-9DD6-EB1D21D1EAA4}"/>
-    <hyperlink ref="C10" r:id="rId6" xr:uid="{E051E471-386D-485D-8001-4F3EA7433C8D}"/>
-    <hyperlink ref="C5" r:id="rId7" xr:uid="{A24BB88E-646D-4879-9979-C2E8D7FEF955}"/>
-    <hyperlink ref="C12" r:id="rId8" xr:uid="{BA830D10-C84D-4CD0-972F-4306751A93E9}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{3C8985B7-B083-48B0-95A5-8FA58093F70E}"/>
+    <hyperlink ref="C9" r:id="rId4" xr:uid="{7126DFDE-433E-4CEC-A816-2C0F8EC6FA50}"/>
+    <hyperlink ref="C10" r:id="rId5" xr:uid="{E6E79CAD-1C2E-4C8C-9DD6-EB1D21D1EAA4}"/>
+    <hyperlink ref="C11" r:id="rId6" xr:uid="{E051E471-386D-485D-8001-4F3EA7433C8D}"/>
+    <hyperlink ref="C13" r:id="rId7" xr:uid="{A24BB88E-646D-4879-9979-C2E8D7FEF955}"/>
+    <hyperlink ref="C14" r:id="rId8" xr:uid="{BA830D10-C84D-4CD0-972F-4306751A93E9}"/>
     <hyperlink ref="C4" r:id="rId9" xr:uid="{61A4F8B2-7381-42B4-A1D3-408ED6691AC6}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{323F9EB1-F7EC-405E-9D85-CC4D0F273258}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjgra\Documents\GitHub\ballbeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C90CC21-8497-45F2-8C1B-25DBBF2ED7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F25A6D-8031-4EC9-A155-040ADB877E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10665" yWindow="2055" windowWidth="12150" windowHeight="15435" xr2:uid="{C168B5FA-1919-4534-8D4F-58E02B33F2C5}"/>
+    <workbookView xWindow="24615" yWindow="2775" windowWidth="12150" windowHeight="15435" xr2:uid="{C168B5FA-1919-4534-8D4F-58E02B33F2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>SparkFun Redboard Qwiic</t>
   </si>
@@ -133,6 +133,21 @@
   </si>
   <si>
     <t>Adafruit LSM6DS33 6-DoF Accel + Gyro IMU - STEMMA QT / Qwiic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/en/products/detail/tri-mag-llc/L6R12H-050/7682624 </t>
+  </si>
+  <si>
+    <t>5V power supply L6R12H-050</t>
+  </si>
+  <si>
+    <t>2.1mm ID, 5.5mm OD barrel jack panel mount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digikey.com/en/products/detail/cui-devices/PJ-038AH/1644551 </t>
+  </si>
+  <si>
+    <t>Alternate</t>
   </si>
 </sst>
 </file>
@@ -575,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27E8EC4-852D-49CA-A771-B6935FD1AC9E}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,6 +881,27 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -881,8 +917,10 @@
     <hyperlink ref="C14" r:id="rId8" xr:uid="{BA830D10-C84D-4CD0-972F-4306751A93E9}"/>
     <hyperlink ref="C4" r:id="rId9" xr:uid="{61A4F8B2-7381-42B4-A1D3-408ED6691AC6}"/>
     <hyperlink ref="C6" r:id="rId10" xr:uid="{323F9EB1-F7EC-405E-9D85-CC4D0F273258}"/>
+    <hyperlink ref="C22" r:id="rId11" xr:uid="{F527E93B-7FF1-4BF7-B7F5-FDCE5D794C63}"/>
+    <hyperlink ref="C23" r:id="rId12" xr:uid="{7465A8E4-A5FE-43F6-A472-FC7ABB172584}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
 </worksheet>
 </file>
--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjgra\Documents\GitHub\ballbeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F25A6D-8031-4EC9-A155-040ADB877E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F5CD5E-7EDF-4CD9-959B-AAA8829D0812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24615" yWindow="2775" windowWidth="12150" windowHeight="15435" xr2:uid="{C168B5FA-1919-4534-8D4F-58E02B33F2C5}"/>
   </bookViews>

--- a/parts_list.xlsx
+++ b/parts_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bjgra\Documents\GitHub\ballbeam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F5CD5E-7EDF-4CD9-959B-AAA8829D0812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F867D2-37B0-44D1-A891-B7EB27BD3798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24615" yWindow="2775" windowWidth="12150" windowHeight="15435" xr2:uid="{C168B5FA-1919-4534-8D4F-58E02B33F2C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{C168B5FA-1919-4534-8D4F-58E02B33F2C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
   <si>
     <t>SparkFun Redboard Qwiic</t>
   </si>
@@ -123,15 +123,9 @@
     <t>TODO</t>
   </si>
   <si>
-    <t>https://www.adafruit.com/product/3317</t>
-  </si>
-  <si>
     <t>Adafruit VL53L0X Time of Flight Distance Sensor</t>
   </si>
   <si>
-    <t>https://www.adafruit.com/product/4480</t>
-  </si>
-  <si>
     <t>Adafruit LSM6DS33 6-DoF Accel + Gyro IMU - STEMMA QT / Qwiic</t>
   </si>
   <si>
@@ -148,6 +142,147 @@
   </si>
   <si>
     <t>Alternate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.adafruit.com/product/3317 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.adafruit.com/product/4480 </t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/uxcell-Bearing-Bearings-Wrapped-Bushings/dp/B07JLBMKPV/</t>
+  </si>
+  <si>
+    <t>Sleeve Bearing 3mm Bore x 5mm OD x 5mm Length</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/uxcell-Groove-Bearing-2080093-Bearings/dp/B07FVYPMPX/</t>
+  </si>
+  <si>
+    <t>693ZZ Deep Groove Ball Bearing Double Shield 3mm Bore x 8mm OD x 4mm Depth</t>
+  </si>
+  <si>
+    <t>Rubber foot</t>
+  </si>
+  <si>
+    <t>L bracket</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/Everbilt-1-1-2-in-Zinc-Plated-Corner-Brace-4-Pack-15304/202033892</t>
+  </si>
+  <si>
+    <t>M3 x 16mm screw</t>
+  </si>
+  <si>
+    <t>M2 x 12mm screw</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Servo mount</t>
+  </si>
+  <si>
+    <t>Power jack mount</t>
+  </si>
+  <si>
+    <t>Beam</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>https://www.lowes.com/pd/Common-1-in-x-8-in-x-8-ft-Actual-0-75-in-x-7-25-in-x-8-ft-Pine-Board/1000248289</t>
+  </si>
+  <si>
+    <t>1" nominal / 0.75" true thickness x 8" nominal / 7.25" true width x 8ft pine wood board</t>
+  </si>
+  <si>
+    <t>Use Fastenal as vendor</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/92981A143/</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/92871A173/</t>
+  </si>
+  <si>
+    <t>18-8 Stainless Steel Unthreaded Spacer, 4.500 mm OD, 4 mm Long, for M3 Screw Size</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/90631A011/</t>
+  </si>
+  <si>
+    <t>Low-Strength Steel Nylon-Insert Locknut, Zinc-Plated, 10-24 Thread Size</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/91259A103/</t>
+  </si>
+  <si>
+    <t>Alloy Steel Shoulder Screw, 1/4" Shoulder Diameter, 2" Shoulder Length, 10-24 Thread</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/LARGE-EXTRA-ROUND-RUBBER-BUMPERS/dp/B01LDT7UHM/</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Electronic-Prototype-Junction-Enclosure-Portable/dp/B073Y7FW1Q/</t>
+  </si>
+  <si>
+    <t>Plastic enclosure box 100mm x 60mm x 25mm</t>
+  </si>
+  <si>
+    <t>1/4" dia bolt, 4" length</t>
+  </si>
+  <si>
+    <t>M2 nut</t>
+  </si>
+  <si>
+    <t>M4 nut</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>M3 nut</t>
+  </si>
+  <si>
+    <t>M4 x 16mm screw</t>
+  </si>
+  <si>
+    <t>Alloy Steel Shoulder Screw, 4 mm Shoulder Diameter, 12 mm Shoulder Length, M3 x 0.5 mm Thread</t>
+  </si>
+  <si>
+    <t>Sensor mount</t>
+  </si>
+  <si>
+    <t>M2.5 x 20mm screw</t>
+  </si>
+  <si>
+    <t>#6 x 5/8 in. Philips Square Drive Pan Head wood screw</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.com/p/SPAX-6-x-5-8-in-Philips-Square-Drive-Pan-Head-Full-Thread-Zinc-Coated-Multi-Material-Screw-50-per-Box-4111010350161/202040985</t>
+  </si>
+  <si>
+    <t>M2.5 nut</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>1/4" ID, 5/8" OD washers</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>M4 T-nut</t>
+  </si>
+  <si>
+    <t>M3 x 6mm female-female standoff</t>
+  </si>
+  <si>
+    <t>Each ballbeam needs 15" + 9" = 24" total length</t>
   </si>
 </sst>
 </file>
@@ -157,7 +292,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,13 +339,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -259,7 +420,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -268,6 +429,16 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="2" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -590,337 +761,829 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F27E8EC4-852D-49CA-A771-B6935FD1AC9E}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="92.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.7109375" customWidth="1"/>
+    <col min="5" max="5" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="3:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="3:7" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="3:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2">
+      <c r="F3" s="2">
         <v>16.82</v>
       </c>
-      <c r="E3" s="2">
-        <f>D3*A3</f>
+      <c r="G3" s="2">
+        <f>F3*C3</f>
         <v>16.82</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="2">
+      <c r="F4" s="2">
         <v>15.79</v>
       </c>
-      <c r="E4" s="2">
-        <f t="shared" ref="E4:E15" si="0">D4*A4</f>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G15" si="0">F4*C4</f>
         <v>15.79</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="2">
         <v>14.95</v>
       </c>
-      <c r="E5" s="2">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
         <v>14.95</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="2">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="2">
         <v>5.95</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>5.95</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
+      <c r="F7" s="2">
         <v>8.99</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <f t="shared" si="0"/>
         <v>8.99</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2">
+      <c r="F8" s="2">
         <v>1.95</v>
       </c>
-      <c r="E8" s="2">
+      <c r="G8" s="2">
         <f t="shared" si="0"/>
         <v>1.95</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="2">
+      <c r="F9" s="2">
         <v>0.95</v>
       </c>
-      <c r="E9" s="2">
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2">
+      <c r="F10" s="2">
         <v>0.95</v>
       </c>
-      <c r="E10" s="2">
+      <c r="G10" s="2">
         <f t="shared" si="0"/>
         <v>0.95</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="2">
+      <c r="F11" s="2">
         <v>2.95</v>
       </c>
-      <c r="E11" s="2">
+      <c r="G11" s="2">
         <f t="shared" si="0"/>
         <v>2.95</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="2">
+      <c r="F12" s="2">
         <v>9.99</v>
       </c>
-      <c r="E12" s="2">
+      <c r="G12" s="2">
         <f t="shared" si="0"/>
         <v>9.99</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="2">
+      <c r="F13" s="2">
         <v>3.58</v>
       </c>
-      <c r="E13" s="2">
-        <f>D13*A13</f>
+      <c r="G13" s="2">
+        <f>F13*C13</f>
         <v>3.58</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="2">
+      <c r="F14" s="2">
         <v>30</v>
       </c>
-      <c r="E14" s="2">
+      <c r="G14" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="2">
+      <c r="F15" s="2">
         <v>5</v>
       </c>
-      <c r="E15" s="2">
+      <c r="G15" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-    </row>
-    <row r="18" spans="1:5" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="18" spans="3:7" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5">
-        <f>SUM(E3:E17)</f>
+      <c r="E18" s="4"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5">
+        <f>SUM(G3:G17)</f>
         <v>117.87</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="19" spans="3:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>36</v>
-      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="28" spans="3:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="8">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="3:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="3:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33">
+        <f>C33*12</f>
+        <v>48</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34">
+        <f>C34*12</f>
+        <v>48</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37">
+        <f>C37*12</f>
+        <v>24</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38:B68" si="1">C38*12</f>
+        <v>24</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="12">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C43" s="12">
+        <v>4</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="13"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="12">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C45" s="12">
+        <v>1</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="C49">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="C53">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="12">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C59" s="12">
+        <v>1</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+    </row>
+    <row r="60" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="12">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C60" s="12">
+        <v>1</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C63" s="15">
+        <v>1</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>42</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>43</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="C68">
+        <v>12</v>
+      </c>
+      <c r="D68" t="s">
+        <v>74</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D75" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1" xr:uid="{3B137E1E-C494-4C17-A72F-66A6D15B151B}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{2C88A49A-D152-48B2-8DB2-F1633349CFCE}"/>
-    <hyperlink ref="C12" r:id="rId3" xr:uid="{3C8985B7-B083-48B0-95A5-8FA58093F70E}"/>
-    <hyperlink ref="C9" r:id="rId4" xr:uid="{7126DFDE-433E-4CEC-A816-2C0F8EC6FA50}"/>
-    <hyperlink ref="C10" r:id="rId5" xr:uid="{E6E79CAD-1C2E-4C8C-9DD6-EB1D21D1EAA4}"/>
-    <hyperlink ref="C11" r:id="rId6" xr:uid="{E051E471-386D-485D-8001-4F3EA7433C8D}"/>
-    <hyperlink ref="C13" r:id="rId7" xr:uid="{A24BB88E-646D-4879-9979-C2E8D7FEF955}"/>
-    <hyperlink ref="C14" r:id="rId8" xr:uid="{BA830D10-C84D-4CD0-972F-4306751A93E9}"/>
-    <hyperlink ref="C4" r:id="rId9" xr:uid="{61A4F8B2-7381-42B4-A1D3-408ED6691AC6}"/>
-    <hyperlink ref="C6" r:id="rId10" xr:uid="{323F9EB1-F7EC-405E-9D85-CC4D0F273258}"/>
-    <hyperlink ref="C22" r:id="rId11" xr:uid="{F527E93B-7FF1-4BF7-B7F5-FDCE5D794C63}"/>
-    <hyperlink ref="C23" r:id="rId12" xr:uid="{7465A8E4-A5FE-43F6-A472-FC7ABB172584}"/>
+    <hyperlink ref="E7" r:id="rId1" xr:uid="{3B137E1E-C494-4C17-A72F-66A6D15B151B}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{2C88A49A-D152-48B2-8DB2-F1633349CFCE}"/>
+    <hyperlink ref="E12" r:id="rId3" xr:uid="{3C8985B7-B083-48B0-95A5-8FA58093F70E}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{7126DFDE-433E-4CEC-A816-2C0F8EC6FA50}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{E6E79CAD-1C2E-4C8C-9DD6-EB1D21D1EAA4}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{E051E471-386D-485D-8001-4F3EA7433C8D}"/>
+    <hyperlink ref="E13" r:id="rId7" xr:uid="{A24BB88E-646D-4879-9979-C2E8D7FEF955}"/>
+    <hyperlink ref="E14" r:id="rId8" xr:uid="{BA830D10-C84D-4CD0-972F-4306751A93E9}"/>
+    <hyperlink ref="E4" r:id="rId9" xr:uid="{61A4F8B2-7381-42B4-A1D3-408ED6691AC6}"/>
+    <hyperlink ref="E6" r:id="rId10" xr:uid="{323F9EB1-F7EC-405E-9D85-CC4D0F273258}"/>
+    <hyperlink ref="E21" r:id="rId11" xr:uid="{F527E93B-7FF1-4BF7-B7F5-FDCE5D794C63}"/>
+    <hyperlink ref="E22" r:id="rId12" xr:uid="{7465A8E4-A5FE-43F6-A472-FC7ABB172584}"/>
+    <hyperlink ref="E5" r:id="rId13" xr:uid="{296D55C7-4CA4-463A-BB71-D865067EB8C1}"/>
+    <hyperlink ref="E29" r:id="rId14" xr:uid="{70487F90-310C-45F2-B004-F6E7EFE0D27A}"/>
+    <hyperlink ref="E28" r:id="rId15" xr:uid="{1491372B-9DDD-4FFA-9DDB-A42BC2A0C73E}"/>
+    <hyperlink ref="E67" r:id="rId16" xr:uid="{2E81928D-C8CA-4ABE-BFC6-DEECE22E0E07}"/>
+    <hyperlink ref="E63" r:id="rId17" xr:uid="{CD34ECC3-11A9-4A46-9767-E2D606331FEB}"/>
+    <hyperlink ref="E60" r:id="rId18" xr:uid="{F3DBC5D7-50DD-4DD3-8DE8-8814F3DA8C4A}"/>
+    <hyperlink ref="E59" r:id="rId19" xr:uid="{65FBD052-2C62-4C14-B17E-0002946FDA18}"/>
+    <hyperlink ref="E57" r:id="rId20" xr:uid="{B33F6C32-63E6-40AA-A4AE-35EA208DC1D3}"/>
+    <hyperlink ref="E56" r:id="rId21" xr:uid="{0938C59C-4E30-42B2-89C3-707F11E9FCA6}"/>
+    <hyperlink ref="E64" r:id="rId22" xr:uid="{E06E3FCA-6AB7-4387-8EA6-B2E5ECAA4D5B}"/>
+    <hyperlink ref="E45" r:id="rId23" xr:uid="{6A9D6B94-7788-490B-ACE4-842E5280026D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId13"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId24"/>
 </worksheet>
 </file>